--- a/DevCards.xlsx
+++ b/DevCards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ara\Advanced Programming\ZombieInMyPocket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB8F0E-6937-49BD-99D6-29408AB3D354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D230535-42BE-4935-96DE-DAE87D9E8EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,9 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/DevCards.xlsx
+++ b/DevCards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ara\Advanced Programming\ZombieInMyPocket\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cja0245\ZIMP\ZombieInMyPocket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D230535-42BE-4935-96DE-DAE87D9E8EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC699C4E-136F-49FA-ADC0-4294CF8FA4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t>event_one</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>charges</t>
+  </si>
+  <si>
+    <t>Unlimited</t>
   </si>
 </sst>
 </file>
@@ -399,9 +405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -411,9 +419,10 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -435,8 +444,11 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -458,8 +470,11 @@
       <c r="G2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -481,8 +496,11 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -504,8 +522,11 @@
       <c r="G4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -527,8 +548,11 @@
       <c r="G5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -550,8 +574,11 @@
       <c r="G6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -573,8 +600,11 @@
       <c r="G7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -596,8 +626,11 @@
       <c r="G8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -616,8 +649,11 @@
       <c r="G9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -638,6 +674,9 @@
       </c>
       <c r="G10">
         <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
